--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
     <t>Fzd8</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.50276421372385</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H2">
-        <v>4.50276421372385</v>
+        <v>0.010261</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0006787744882400219</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0006824388225951697</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="N2">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="O2">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="P2">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="Q2">
-        <v>13.66737736101792</v>
+        <v>0.01047500683633333</v>
       </c>
       <c r="R2">
-        <v>13.66737736101792</v>
+        <v>0.09427506152699999</v>
       </c>
       <c r="S2">
-        <v>0.2514573782857693</v>
+        <v>0.0001669837772301643</v>
       </c>
       <c r="T2">
-        <v>0.2514573782857693</v>
+        <v>0.0001836165545026842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.50276421372385</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H3">
-        <v>4.50276421372385</v>
+        <v>0.010261</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0006787744882400219</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0006824388225951697</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="N3">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="P3">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="Q3">
-        <v>26.56090936425519</v>
+        <v>0.021025137874</v>
       </c>
       <c r="R3">
-        <v>26.56090936425519</v>
+        <v>0.189226240866</v>
       </c>
       <c r="S3">
-        <v>0.4886772683010276</v>
+        <v>0.0003351651214973761</v>
       </c>
       <c r="T3">
-        <v>0.4886772683010276</v>
+        <v>0.0003685499622756447</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,805 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.003420333333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.010261</v>
+      </c>
+      <c r="I4">
+        <v>0.0006787744882400219</v>
+      </c>
+      <c r="J4">
+        <v>0.0006824388225951697</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.052795</v>
+      </c>
+      <c r="O4">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="P4">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="Q4">
+        <v>6.019216611111111E-05</v>
+      </c>
+      <c r="R4">
+        <v>0.000541729495</v>
+      </c>
+      <c r="S4">
+        <v>9.595330498530835E-07</v>
+      </c>
+      <c r="T4">
+        <v>1.055109397259753E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.003420333333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.010261</v>
+      </c>
+      <c r="I5">
+        <v>0.0006787744882400219</v>
+      </c>
+      <c r="J5">
+        <v>0.0006824388225951697</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.022088</v>
+      </c>
+      <c r="N5">
+        <v>0.066264</v>
+      </c>
+      <c r="O5">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P5">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q5">
+        <v>7.554832266666666E-05</v>
+      </c>
+      <c r="R5">
+        <v>0.000679934904</v>
+      </c>
+      <c r="S5">
+        <v>1.204328023779993E-06</v>
+      </c>
+      <c r="T5">
+        <v>1.324287699593148E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.003420333333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.010261</v>
+      </c>
+      <c r="I6">
+        <v>0.0006787744882400219</v>
+      </c>
+      <c r="J6">
+        <v>0.0006824388225951697</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.1997185</v>
+      </c>
+      <c r="N6">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P6">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q6">
+        <v>0.01094410384283333</v>
+      </c>
+      <c r="R6">
+        <v>0.06566462305700001</v>
+      </c>
+      <c r="S6">
+        <v>0.0001744617284388484</v>
+      </c>
+      <c r="T6">
+        <v>0.0001278929087199879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.954393</v>
+      </c>
+      <c r="H7">
+        <v>14.863179</v>
+      </c>
+      <c r="I7">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J7">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.062569</v>
+      </c>
+      <c r="N7">
+        <v>9.187707</v>
+      </c>
+      <c r="O7">
+        <v>0.2460077391286943</v>
+      </c>
+      <c r="P7">
+        <v>0.2690593624267</v>
+      </c>
+      <c r="Q7">
+        <v>15.173170415617</v>
+      </c>
+      <c r="R7">
+        <v>136.558533740553</v>
+      </c>
+      <c r="S7">
+        <v>0.2418779622910102</v>
+      </c>
+      <c r="T7">
+        <v>0.2659707354971885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.954393</v>
+      </c>
+      <c r="H8">
+        <v>14.863179</v>
+      </c>
+      <c r="I8">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J8">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.147102</v>
+      </c>
+      <c r="N8">
+        <v>18.441306</v>
+      </c>
+      <c r="O8">
+        <v>0.4937797859292232</v>
+      </c>
+      <c r="P8">
+        <v>0.5400483531609875</v>
+      </c>
+      <c r="Q8">
+        <v>30.455159119086</v>
+      </c>
+      <c r="R8">
+        <v>274.096432071774</v>
+      </c>
+      <c r="S8">
+        <v>0.485490614498806</v>
+      </c>
+      <c r="T8">
+        <v>0.5338489484208317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.954393</v>
+      </c>
+      <c r="H9">
+        <v>14.863179</v>
+      </c>
+      <c r="I9">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J9">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.052795</v>
+      </c>
+      <c r="O9">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="P9">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="Q9">
+        <v>0.08718905947833333</v>
+      </c>
+      <c r="R9">
+        <v>0.784701535305</v>
+      </c>
+      <c r="S9">
+        <v>0.001389894890983559</v>
+      </c>
+      <c r="T9">
+        <v>0.001528338352602457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.954393</v>
+      </c>
+      <c r="H10">
+        <v>14.863179</v>
+      </c>
+      <c r="I10">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J10">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.022088</v>
+      </c>
+      <c r="N10">
+        <v>0.066264</v>
+      </c>
+      <c r="O10">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P10">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q10">
+        <v>0.109432632584</v>
+      </c>
+      <c r="R10">
+        <v>0.984893693256</v>
+      </c>
+      <c r="S10">
+        <v>0.001744483285465188</v>
+      </c>
+      <c r="T10">
+        <v>0.001918246284626371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.954393</v>
+      </c>
+      <c r="H11">
+        <v>14.863179</v>
+      </c>
+      <c r="I11">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J11">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.1997185</v>
+      </c>
+      <c r="N11">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P11">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q11">
+        <v>15.8526629383705</v>
+      </c>
+      <c r="R11">
+        <v>95.115977630223</v>
+      </c>
+      <c r="S11">
+        <v>0.2527098624340702</v>
+      </c>
+      <c r="T11">
+        <v>0.1852543801906092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.50276421372385</v>
-      </c>
-      <c r="H4">
-        <v>4.50276421372385</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.13682273890955</v>
-      </c>
-      <c r="N4">
-        <v>3.13682273890955</v>
-      </c>
-      <c r="O4">
-        <v>0.259865353413203</v>
-      </c>
-      <c r="P4">
-        <v>0.259865353413203</v>
-      </c>
-      <c r="Q4">
-        <v>14.12437317355715</v>
-      </c>
-      <c r="R4">
-        <v>14.12437317355715</v>
-      </c>
-      <c r="S4">
-        <v>0.259865353413203</v>
-      </c>
-      <c r="T4">
-        <v>0.259865353413203</v>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.16234</v>
+      </c>
+      <c r="I12">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J12">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.062569</v>
+      </c>
+      <c r="N12">
+        <v>9.187707</v>
+      </c>
+      <c r="O12">
+        <v>0.2460077391286943</v>
+      </c>
+      <c r="P12">
+        <v>0.2690593624267</v>
+      </c>
+      <c r="Q12">
+        <v>0.24858872573</v>
+      </c>
+      <c r="R12">
+        <v>1.49153235438</v>
+      </c>
+      <c r="S12">
+        <v>0.003962793060453885</v>
+      </c>
+      <c r="T12">
+        <v>0.002905010375008844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.16234</v>
+      </c>
+      <c r="I13">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J13">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.147102</v>
+      </c>
+      <c r="N13">
+        <v>18.441306</v>
+      </c>
+      <c r="O13">
+        <v>0.4937797859292232</v>
+      </c>
+      <c r="P13">
+        <v>0.5400483531609875</v>
+      </c>
+      <c r="Q13">
+        <v>0.49896026934</v>
+      </c>
+      <c r="R13">
+        <v>2.99376161604</v>
+      </c>
+      <c r="S13">
+        <v>0.007954006308919799</v>
+      </c>
+      <c r="T13">
+        <v>0.005830854777880145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.16234</v>
+      </c>
+      <c r="I14">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J14">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.052795</v>
+      </c>
+      <c r="O14">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="P14">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="Q14">
+        <v>0.001428456716666667</v>
+      </c>
+      <c r="R14">
+        <v>0.008570740300000001</v>
+      </c>
+      <c r="S14">
+        <v>2.277125942595501E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.669295970676818E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.16234</v>
+      </c>
+      <c r="I15">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J15">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.022088</v>
+      </c>
+      <c r="N15">
+        <v>0.066264</v>
+      </c>
+      <c r="O15">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P15">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q15">
+        <v>0.00179288296</v>
+      </c>
+      <c r="R15">
+        <v>0.01075729776</v>
+      </c>
+      <c r="S15">
+        <v>2.858063707929696E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.095164848961619E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.16234</v>
+      </c>
+      <c r="I16">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J16">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.1997185</v>
+      </c>
+      <c r="N16">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P16">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q16">
+        <v>0.2597211506450001</v>
+      </c>
+      <c r="R16">
+        <v>1.03888460258</v>
+      </c>
+      <c r="S16">
+        <v>0.004140256845545656</v>
+      </c>
+      <c r="T16">
+        <v>0.002023402670461245</v>
       </c>
     </row>
   </sheetData>
